--- a/dev_docs/Tetra数值公式_10_22.xlsx
+++ b/dev_docs/Tetra数值公式_10_22.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A2BC8-FE27-47CF-B117-6D182ED0E252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06FCB0-D5F7-42F6-BCA6-FBE17C445EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="1630" windowWidth="19200" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
-    <sheet name="SA" sheetId="2" r:id="rId2"/>
-    <sheet name="护甲" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="SA" sheetId="2" r:id="rId3"/>
+    <sheet name="护甲" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
   <si>
     <t>刀刃</t>
   </si>
@@ -678,6 +679,10 @@
   <si>
     <t>aether_redux:gravitite_ingot</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他特性1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -842,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,6 +914,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1188,11 +1196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6769,6 +6777,341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014E66B-C5A6-4CE4-BADC-109F8338FF43}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="D2" s="20">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="20">
+        <v>6</v>
+      </c>
+      <c r="D3" s="20">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="D6" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="D7" s="20">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6781,7 +7124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79265FF-18F7-42BB-AF2F-3CB626A36E0D}">
   <dimension ref="D5:S67"/>
   <sheetViews>

--- a/dev_docs/Tetra数值公式_10_22.xlsx
+++ b/dev_docs/Tetra数值公式_10_22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCL\.minecraft\versions\SenDims_BanForges\dev_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D06FCB0-D5F7-42F6-BCA6-FBE17C445EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B265B55-FFB5-4DE9-8DAC-8E2F4FD0FDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="1630" windowWidth="19200" windowHeight="11260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="3410" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="194">
   <si>
     <t>刀刃</t>
   </si>
@@ -683,6 +683,34 @@
   <si>
     <t>其他特性1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>源质渣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚铁锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星莹钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜寒合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平流银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1196,11 +1224,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD57"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.58203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1596,9 @@
         <v>44</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1644,9 @@
     <row r="12" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1656,7 +1688,9 @@
         <v>46</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1690,7 +1724,9 @@
     <row r="14" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1732,7 +1768,9 @@
         <v>47</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1766,7 +1804,9 @@
     <row r="16" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1808,7 +1848,9 @@
         <v>48</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -6780,7 +6822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014E66B-C5A6-4CE4-BADC-109F8338FF43}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
